--- a/StructureDefinition-presc-local.xlsx
+++ b/StructureDefinition-presc-local.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T19:26:47+00:00</t>
+    <t>2023-02-16T20:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-presc-local.xlsx
+++ b/StructureDefinition-presc-local.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T20:28:10+00:00</t>
+    <t>2023-02-16T21:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-presc-local.xlsx
+++ b/StructureDefinition-presc-local.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T21:17:23+00:00</t>
+    <t>2023-02-16T21:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
